--- a/Data/EC/NIT-9016213774.xlsx
+++ b/Data/EC/NIT-9016213774.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19D8F827-97A0-4C2F-B3FA-180A58AC464C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62726F53-ABD5-4FB6-AC2F-CC2C0235187D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{408038B5-DE33-4C08-8FB3-99B12D221FFE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D53B8215-A789-4261-8172-6A968EFAE9F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,19 +65,148 @@
     <t>CC</t>
   </si>
   <si>
+    <t>45765771</t>
+  </si>
+  <si>
+    <t>ELIFELET ROCHA GARCIA</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>1047375750</t>
+  </si>
+  <si>
+    <t>JOHANIS IBAÑEZ</t>
+  </si>
+  <si>
+    <t>1143340401</t>
+  </si>
+  <si>
+    <t>LEIDIS MARCELA PEÑA ROBLES</t>
+  </si>
+  <si>
+    <t>49759568</t>
+  </si>
+  <si>
+    <t>LILIANA ACUÑA BRAVO</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>73571102</t>
+  </si>
+  <si>
+    <t>RUBEN DARIO VILLAMIL AGUILAR</t>
+  </si>
+  <si>
+    <t>45523428</t>
+  </si>
+  <si>
+    <t>KATHERINE GISEL BRITO SERRANO</t>
+  </si>
+  <si>
+    <t>45477182</t>
+  </si>
+  <si>
+    <t>YANERYS CASTILLO ORTEGA</t>
+  </si>
+  <si>
+    <t>45525282</t>
+  </si>
+  <si>
+    <t>YESMITH DEL CARMEN MARRUGO ORTIZ</t>
+  </si>
+  <si>
     <t>45491200</t>
   </si>
   <si>
     <t>NORIS DE JESUS TORRES QUINTANA</t>
   </si>
   <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>45477182</t>
-  </si>
-  <si>
-    <t>YANERYS CASTILLO ORTEGA</t>
+    <t>1143326275</t>
+  </si>
+  <si>
+    <t>MARIA EUGENIA DIAZ RUIZ</t>
+  </si>
+  <si>
+    <t>45554005</t>
+  </si>
+  <si>
+    <t>MARTHA FAJARDO CHICO</t>
+  </si>
+  <si>
+    <t>15025168</t>
+  </si>
+  <si>
+    <t>BLAS JOSE HERNANDEZ GENES</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>1050949359</t>
+  </si>
+  <si>
+    <t>INGRID CANTILLO ROCHA</t>
+  </si>
+  <si>
+    <t>1070814213</t>
+  </si>
+  <si>
+    <t>ERICA ROCIO GONZALEZ VARGAS</t>
+  </si>
+  <si>
+    <t>26795657</t>
+  </si>
+  <si>
+    <t>BEATRIZ ELENA NOVOA TAPIA</t>
+  </si>
+  <si>
+    <t>22464424</t>
+  </si>
+  <si>
+    <t>IRINA CHARRIS HOYOS</t>
+  </si>
+  <si>
+    <t>1047409863</t>
+  </si>
+  <si>
+    <t>ERIKA ROSA BERRIO BARRIOS</t>
+  </si>
+  <si>
+    <t>73154999</t>
+  </si>
+  <si>
+    <t>FELIX ANTONIO BELLIDO MONTERO</t>
+  </si>
+  <si>
+    <t>33102950</t>
+  </si>
+  <si>
+    <t>LUZDARY HUERTAS ARANZA</t>
+  </si>
+  <si>
+    <t>1047456149</t>
+  </si>
+  <si>
+    <t>GUSTAVO ADOLFO JAM FIGUEROA</t>
+  </si>
+  <si>
+    <t>1128058925</t>
+  </si>
+  <si>
+    <t>YESENIA PARRA MARIMON</t>
+  </si>
+  <si>
+    <t>1047504667</t>
+  </si>
+  <si>
+    <t>WENDY PAOLA GODOY MEDRANO</t>
+  </si>
+  <si>
+    <t>2306</t>
   </si>
   <si>
     <t>1047455773</t>
@@ -86,139 +215,10 @@
     <t>EDRIN ALEJANDRO VILLAR VASQUEZ</t>
   </si>
   <si>
-    <t>45523428</t>
-  </si>
-  <si>
-    <t>KATHERINE GISEL BRITO SERRANO</t>
-  </si>
-  <si>
-    <t>1047504667</t>
-  </si>
-  <si>
-    <t>WENDY PAOLA GODOY MEDRANO</t>
-  </si>
-  <si>
-    <t>45525282</t>
-  </si>
-  <si>
-    <t>YESMITH DEL CARMEN MARRUGO ORTIZ</t>
-  </si>
-  <si>
-    <t>45554005</t>
-  </si>
-  <si>
-    <t>MARTHA FAJARDO CHICO</t>
-  </si>
-  <si>
-    <t>1128058925</t>
-  </si>
-  <si>
-    <t>YESENIA PARRA MARIMON</t>
-  </si>
-  <si>
-    <t>73571102</t>
-  </si>
-  <si>
-    <t>RUBEN DARIO VILLAMIL AGUILAR</t>
-  </si>
-  <si>
-    <t>1070814213</t>
-  </si>
-  <si>
-    <t>ERICA ROCIO GONZALEZ VARGAS</t>
-  </si>
-  <si>
     <t>1007314298</t>
   </si>
   <si>
     <t>MILEIDIS DEL CARMEN PALACIN VANEGAS</t>
-  </si>
-  <si>
-    <t>1050949359</t>
-  </si>
-  <si>
-    <t>INGRID CANTILLO ROCHA</t>
-  </si>
-  <si>
-    <t>1143326275</t>
-  </si>
-  <si>
-    <t>MARIA EUGENIA DIAZ RUIZ</t>
-  </si>
-  <si>
-    <t>26795657</t>
-  </si>
-  <si>
-    <t>BEATRIZ ELENA NOVOA TAPIA</t>
-  </si>
-  <si>
-    <t>1047409863</t>
-  </si>
-  <si>
-    <t>ERIKA ROSA BERRIO BARRIOS</t>
-  </si>
-  <si>
-    <t>1143340401</t>
-  </si>
-  <si>
-    <t>LEIDIS MARCELA PEÑA ROBLES</t>
-  </si>
-  <si>
-    <t>45765771</t>
-  </si>
-  <si>
-    <t>ELIFELET ROCHA GARCIA</t>
-  </si>
-  <si>
-    <t>33102950</t>
-  </si>
-  <si>
-    <t>LUZDARY HUERTAS ARANZA</t>
-  </si>
-  <si>
-    <t>1047375750</t>
-  </si>
-  <si>
-    <t>JOHANIS IBAÑEZ</t>
-  </si>
-  <si>
-    <t>73154999</t>
-  </si>
-  <si>
-    <t>FELIX ANTONIO BELLIDO MONTERO</t>
-  </si>
-  <si>
-    <t>22464424</t>
-  </si>
-  <si>
-    <t>IRINA CHARRIS HOYOS</t>
-  </si>
-  <si>
-    <t>1047456149</t>
-  </si>
-  <si>
-    <t>GUSTAVO ADOLFO JAM FIGUEROA</t>
-  </si>
-  <si>
-    <t>49759568</t>
-  </si>
-  <si>
-    <t>LILIANA ACUÑA BRAVO</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>15025168</t>
-  </si>
-  <si>
-    <t>BLAS JOSE HERNANDEZ GENES</t>
-  </si>
-  <si>
-    <t>2309</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -632,7 +632,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BBAFEA6-518A-0C8D-2B29-5DD6D51B46D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BC40539-1B39-F47F-F1F4-A7E737D3AE6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -983,7 +983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DBEF330-E457-4A47-9834-58F4D92B476D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15864C32-DBFC-4037-9F7B-AB2608364397}">
   <dimension ref="B2:J57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1161,10 +1161,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>53568</v>
+        <v>46400</v>
       </c>
       <c r="G16" s="18">
-        <v>1473120</v>
+        <v>1300000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1187,7 +1187,7 @@
         <v>46400</v>
       </c>
       <c r="G17" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1227,7 +1227,7 @@
         <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F19" s="18">
         <v>46400</v>
@@ -1244,10 +1244,10 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>11</v>
@@ -1267,19 +1267,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>21</v>
-      </c>
       <c r="E21" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>46400</v>
       </c>
       <c r="G21" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1290,19 +1290,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="18">
-        <v>49600</v>
+        <v>41760</v>
       </c>
       <c r="G22" s="18">
-        <v>1390000</v>
+        <v>1300000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1313,13 +1313,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>46400</v>
@@ -1336,16 +1336,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="18">
-        <v>41760</v>
+        <v>46400</v>
       </c>
       <c r="G24" s="18">
         <v>1300000</v>
@@ -1359,19 +1359,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
         <v>46400</v>
       </c>
       <c r="G25" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1382,10 +1382,10 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>11</v>
@@ -1405,10 +1405,10 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>11</v>
@@ -1417,7 +1417,7 @@
         <v>46400</v>
       </c>
       <c r="G27" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1428,19 +1428,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F28" s="18">
-        <v>46400</v>
+        <v>53568</v>
       </c>
       <c r="G28" s="18">
-        <v>1160000</v>
+        <v>1473120</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1451,19 +1451,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="18">
-        <v>46400</v>
+        <v>53568</v>
       </c>
       <c r="G29" s="18">
-        <v>1300000</v>
+        <v>1473120</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1474,10 +1474,10 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>11</v>
@@ -1497,19 +1497,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F31" s="18">
-        <v>46400</v>
+        <v>49600</v>
       </c>
       <c r="G31" s="18">
-        <v>1300000</v>
+        <v>1390000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1520,19 +1520,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F32" s="18">
-        <v>46400</v>
+        <v>49600</v>
       </c>
       <c r="G32" s="18">
-        <v>1300000</v>
+        <v>1390000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1543,19 +1543,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F33" s="18">
         <v>46400</v>
       </c>
       <c r="G33" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1566,10 +1566,10 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>11</v>
@@ -1578,7 +1578,7 @@
         <v>46400</v>
       </c>
       <c r="G34" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1589,10 +1589,10 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>11</v>
@@ -1612,19 +1612,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F36" s="18">
         <v>46400</v>
       </c>
       <c r="G36" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1635,10 +1635,10 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>11</v>
@@ -1658,19 +1658,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F38" s="18">
         <v>46400</v>
       </c>
       <c r="G38" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1681,19 +1681,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F39" s="18">
         <v>46400</v>
       </c>
       <c r="G39" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1704,13 +1704,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F40" s="18">
         <v>46400</v>
@@ -1727,13 +1727,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="F41" s="18">
         <v>46400</v>
@@ -1750,13 +1750,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F42" s="18">
         <v>46400</v>
@@ -1773,13 +1773,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="F43" s="18">
         <v>46400</v>
@@ -1802,7 +1802,7 @@
         <v>49</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F44" s="18">
         <v>46400</v>
@@ -1819,13 +1819,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F45" s="18">
         <v>46400</v>
@@ -1842,19 +1842,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F46" s="18">
-        <v>53568</v>
+        <v>46400</v>
       </c>
       <c r="G46" s="18">
-        <v>1473120</v>
+        <v>1300000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1865,10 +1865,10 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>56</v>
@@ -1888,19 +1888,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="F48" s="18">
-        <v>49600</v>
+        <v>46400</v>
       </c>
       <c r="G48" s="18">
-        <v>1390000</v>
+        <v>1300000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1911,19 +1911,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F49" s="18">
         <v>46400</v>
       </c>
       <c r="G49" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1934,13 +1934,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F50" s="18">
         <v>46400</v>
@@ -1957,13 +1957,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="F51" s="24">
         <v>46400</v>

--- a/Data/EC/NIT-9016213774.xlsx
+++ b/Data/EC/NIT-9016213774.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62726F53-ABD5-4FB6-AC2F-CC2C0235187D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACF8DE8D-827F-4A0E-BB0A-67D60E6FE961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D53B8215-A789-4261-8172-6A968EFAE9F0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FFC98A03-92DF-41FB-88C7-CE2B95E6798E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="81">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -92,49 +92,124 @@
     <t>LILIANA ACUÑA BRAVO</t>
   </si>
   <si>
+    <t>73571102</t>
+  </si>
+  <si>
+    <t>RUBEN DARIO VILLAMIL AGUILAR</t>
+  </si>
+  <si>
+    <t>45523428</t>
+  </si>
+  <si>
+    <t>KATHERINE GISEL BRITO SERRANO</t>
+  </si>
+  <si>
+    <t>45477182</t>
+  </si>
+  <si>
+    <t>YANERYS CASTILLO ORTEGA</t>
+  </si>
+  <si>
+    <t>45525282</t>
+  </si>
+  <si>
+    <t>YESMITH DEL CARMEN MARRUGO ORTIZ</t>
+  </si>
+  <si>
+    <t>45491200</t>
+  </si>
+  <si>
+    <t>NORIS DE JESUS TORRES QUINTANA</t>
+  </si>
+  <si>
+    <t>1143326275</t>
+  </si>
+  <si>
+    <t>MARIA EUGENIA DIAZ RUIZ</t>
+  </si>
+  <si>
+    <t>45554005</t>
+  </si>
+  <si>
+    <t>MARTHA FAJARDO CHICO</t>
+  </si>
+  <si>
+    <t>1050949359</t>
+  </si>
+  <si>
+    <t>INGRID CANTILLO ROCHA</t>
+  </si>
+  <si>
+    <t>1070814213</t>
+  </si>
+  <si>
+    <t>ERICA ROCIO GONZALEZ VARGAS</t>
+  </si>
+  <si>
+    <t>26795657</t>
+  </si>
+  <si>
+    <t>BEATRIZ ELENA NOVOA TAPIA</t>
+  </si>
+  <si>
+    <t>22464424</t>
+  </si>
+  <si>
+    <t>IRINA CHARRIS HOYOS</t>
+  </si>
+  <si>
+    <t>1047409863</t>
+  </si>
+  <si>
+    <t>ERIKA ROSA BERRIO BARRIOS</t>
+  </si>
+  <si>
+    <t>73154999</t>
+  </si>
+  <si>
+    <t>FELIX ANTONIO BELLIDO MONTERO</t>
+  </si>
+  <si>
+    <t>33102950</t>
+  </si>
+  <si>
+    <t>LUZDARY HUERTAS ARANZA</t>
+  </si>
+  <si>
+    <t>1047456149</t>
+  </si>
+  <si>
+    <t>GUSTAVO ADOLFO JAM FIGUEROA</t>
+  </si>
+  <si>
+    <t>1128058925</t>
+  </si>
+  <si>
+    <t>YESENIA PARRA MARIMON</t>
+  </si>
+  <si>
+    <t>1047504667</t>
+  </si>
+  <si>
+    <t>WENDY PAOLA GODOY MEDRANO</t>
+  </si>
+  <si>
+    <t>1047455773</t>
+  </si>
+  <si>
+    <t>EDRIN ALEJANDRO VILLAR VASQUEZ</t>
+  </si>
+  <si>
+    <t>1007314298</t>
+  </si>
+  <si>
+    <t>MILEIDIS DEL CARMEN PALACIN VANEGAS</t>
+  </si>
+  <si>
     <t>2305</t>
   </si>
   <si>
-    <t>73571102</t>
-  </si>
-  <si>
-    <t>RUBEN DARIO VILLAMIL AGUILAR</t>
-  </si>
-  <si>
-    <t>45523428</t>
-  </si>
-  <si>
-    <t>KATHERINE GISEL BRITO SERRANO</t>
-  </si>
-  <si>
-    <t>45477182</t>
-  </si>
-  <si>
-    <t>YANERYS CASTILLO ORTEGA</t>
-  </si>
-  <si>
-    <t>45525282</t>
-  </si>
-  <si>
-    <t>YESMITH DEL CARMEN MARRUGO ORTIZ</t>
-  </si>
-  <si>
-    <t>45491200</t>
-  </si>
-  <si>
-    <t>NORIS DE JESUS TORRES QUINTANA</t>
-  </si>
-  <si>
-    <t>1143326275</t>
-  </si>
-  <si>
-    <t>MARIA EUGENIA DIAZ RUIZ</t>
-  </si>
-  <si>
-    <t>45554005</t>
-  </si>
-  <si>
-    <t>MARTHA FAJARDO CHICO</t>
+    <t>2306</t>
   </si>
   <si>
     <t>15025168</t>
@@ -146,79 +221,31 @@
     <t>2309</t>
   </si>
   <si>
-    <t>1050949359</t>
-  </si>
-  <si>
-    <t>INGRID CANTILLO ROCHA</t>
-  </si>
-  <si>
-    <t>1070814213</t>
-  </si>
-  <si>
-    <t>ERICA ROCIO GONZALEZ VARGAS</t>
-  </si>
-  <si>
-    <t>26795657</t>
-  </si>
-  <si>
-    <t>BEATRIZ ELENA NOVOA TAPIA</t>
-  </si>
-  <si>
-    <t>22464424</t>
-  </si>
-  <si>
-    <t>IRINA CHARRIS HOYOS</t>
-  </si>
-  <si>
-    <t>1047409863</t>
-  </si>
-  <si>
-    <t>ERIKA ROSA BERRIO BARRIOS</t>
-  </si>
-  <si>
-    <t>73154999</t>
-  </si>
-  <si>
-    <t>FELIX ANTONIO BELLIDO MONTERO</t>
-  </si>
-  <si>
-    <t>33102950</t>
-  </si>
-  <si>
-    <t>LUZDARY HUERTAS ARANZA</t>
-  </si>
-  <si>
-    <t>1047456149</t>
-  </si>
-  <si>
-    <t>GUSTAVO ADOLFO JAM FIGUEROA</t>
-  </si>
-  <si>
-    <t>1128058925</t>
-  </si>
-  <si>
-    <t>YESENIA PARRA MARIMON</t>
-  </si>
-  <si>
-    <t>1047504667</t>
-  </si>
-  <si>
-    <t>WENDY PAOLA GODOY MEDRANO</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>1047455773</t>
-  </si>
-  <si>
-    <t>EDRIN ALEJANDRO VILLAR VASQUEZ</t>
-  </si>
-  <si>
-    <t>1007314298</t>
-  </si>
-  <si>
-    <t>MILEIDIS DEL CARMEN PALACIN VANEGAS</t>
+    <t>45550332</t>
+  </si>
+  <si>
+    <t>YADITH DEL CARMEN RODRIGUEZ GARCIA</t>
+  </si>
+  <si>
+    <t>2508</t>
+  </si>
+  <si>
+    <t>1143328855</t>
+  </si>
+  <si>
+    <t>YUSNEIDI PINEDA GOMEZ</t>
+  </si>
+  <si>
+    <t>45535986</t>
+  </si>
+  <si>
+    <t>KARINA MIRANDA ARROYO</t>
+  </si>
+  <si>
+    <t>1143334556</t>
+  </si>
+  <si>
+    <t>YIBETH PAULIN RUIZ RODRIGUEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -317,7 +344,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -330,9 +359,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -532,23 +559,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -576,10 +603,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -632,7 +659,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BC40539-1B39-F47F-F1F4-A7E737D3AE6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E563074E-B624-EE25-9EDF-278629ACE3C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -983,8 +1010,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15864C32-DBFC-4037-9F7B-AB2608364397}">
-  <dimension ref="B2:J57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD9FEFB-53D6-4B96-8A7A-FDA228A52EE8}">
+  <dimension ref="B2:J61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -995,7 +1022,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1008,7 +1035,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1053,7 +1080,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1085,12 +1112,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1686496</v>
+        <v>1826948</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1101,17 +1128,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C13" s="5">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F13" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1138,13 +1165,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1187,7 +1214,7 @@
         <v>46400</v>
       </c>
       <c r="G17" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1227,13 +1254,13 @@
         <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
         <v>46400</v>
       </c>
       <c r="G19" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1244,16 +1271,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>46400</v>
+        <v>41760</v>
       </c>
       <c r="G20" s="18">
         <v>1300000</v>
@@ -1267,19 +1294,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F21" s="18">
         <v>46400</v>
       </c>
       <c r="G21" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1290,19 +1317,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="18">
-        <v>41760</v>
+        <v>46400</v>
       </c>
       <c r="G22" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1313,19 +1340,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
         <v>46400</v>
       </c>
       <c r="G23" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1336,19 +1363,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="18">
-        <v>46400</v>
+        <v>53568</v>
       </c>
       <c r="G24" s="18">
-        <v>1300000</v>
+        <v>1560000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1359,13 +1386,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F25" s="18">
         <v>46400</v>
@@ -1382,19 +1409,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F26" s="18">
-        <v>46400</v>
+        <v>49600</v>
       </c>
       <c r="G26" s="18">
-        <v>1160000</v>
+        <v>1522000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1405,10 +1432,10 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>11</v>
@@ -1417,7 +1444,7 @@
         <v>46400</v>
       </c>
       <c r="G27" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1428,19 +1455,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F28" s="18">
-        <v>53568</v>
+        <v>46400</v>
       </c>
       <c r="G28" s="18">
-        <v>1473120</v>
+        <v>1300000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1451,19 +1478,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="18">
-        <v>53568</v>
+        <v>46400</v>
       </c>
       <c r="G29" s="18">
-        <v>1473120</v>
+        <v>1423500</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1474,10 +1501,10 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>11</v>
@@ -1497,19 +1524,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F31" s="18">
-        <v>49600</v>
+        <v>46400</v>
       </c>
       <c r="G31" s="18">
-        <v>1390000</v>
+        <v>1160000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1520,19 +1547,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F32" s="18">
-        <v>49600</v>
+        <v>46400</v>
       </c>
       <c r="G32" s="18">
-        <v>1390000</v>
+        <v>1423500</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1543,19 +1570,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F33" s="18">
         <v>46400</v>
       </c>
       <c r="G33" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1566,10 +1593,10 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>11</v>
@@ -1589,10 +1616,10 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>11</v>
@@ -1601,7 +1628,7 @@
         <v>46400</v>
       </c>
       <c r="G35" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1612,13 +1639,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F36" s="18">
         <v>46400</v>
@@ -1635,10 +1662,10 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>11</v>
@@ -1658,13 +1685,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F38" s="18">
         <v>46400</v>
@@ -1681,19 +1708,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="F39" s="18">
         <v>46400</v>
       </c>
       <c r="G39" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1704,19 +1731,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="F40" s="18">
         <v>46400</v>
       </c>
       <c r="G40" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1727,19 +1754,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F41" s="18">
         <v>46400</v>
       </c>
       <c r="G41" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1750,19 +1777,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="F42" s="18">
         <v>46400</v>
       </c>
       <c r="G42" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1773,19 +1800,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F43" s="18">
-        <v>46400</v>
+        <v>53568</v>
       </c>
       <c r="G43" s="18">
-        <v>1300000</v>
+        <v>1560000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1796,19 +1823,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="F44" s="18">
-        <v>46400</v>
+        <v>49600</v>
       </c>
       <c r="G44" s="18">
-        <v>1300000</v>
+        <v>1522000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1819,19 +1846,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="F45" s="18">
         <v>46400</v>
       </c>
       <c r="G45" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1842,19 +1869,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="F46" s="18">
         <v>46400</v>
       </c>
       <c r="G46" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1865,10 +1892,10 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>56</v>
@@ -1877,7 +1904,7 @@
         <v>46400</v>
       </c>
       <c r="G47" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1888,13 +1915,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F48" s="18">
         <v>46400</v>
@@ -1911,13 +1938,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="F49" s="18">
         <v>46400</v>
@@ -1934,13 +1961,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="16" t="s">
         <v>57</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F50" s="18">
         <v>46400</v>
@@ -1953,56 +1980,148 @@
       <c r="J50" s="20"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="22" t="s">
+      <c r="B51" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="E51" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="24">
-        <v>46400</v>
-      </c>
-      <c r="G51" s="24">
-        <v>1160000</v>
-      </c>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="26"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B56" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="32"/>
-      <c r="H56" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B57" s="32" t="s">
+      <c r="F51" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G51" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F52" s="18">
+        <v>32266</v>
+      </c>
+      <c r="G52" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F53" s="18">
+        <v>32266</v>
+      </c>
+      <c r="G53" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="20"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B54" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F54" s="18">
+        <v>32266</v>
+      </c>
+      <c r="G54" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="20"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B55" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="32"/>
-      <c r="H57" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+      <c r="E55" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F55" s="24">
+        <v>43654</v>
+      </c>
+      <c r="G55" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="26"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B60" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="32"/>
+      <c r="H60" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B61" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="32"/>
+      <c r="H61" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="H60:J60"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
